--- a/biology/Botanique/Hacrobia/Hacrobia.xlsx
+++ b/biology/Botanique/Hacrobia/Hacrobia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-règne des Hacrobies, ou Hacrobia, est un groupe monophylétique[2] formé par l'union des Haptophyta et des Cryptophyta (l'étymologie du terme provient des deux premières lettres de ces deux taxons : "Ha-"+"cr-"). Les Hacrobies formeraient le groupe frère des Harosa au sein des Chromalveolata au sens large[3]. Il a été proposé en 2010 d'y inclure également les Heliozoa[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-règne des Hacrobies, ou Hacrobia, est un groupe monophylétique formé par l'union des Haptophyta et des Cryptophyta (l'étymologie du terme provient des deux premières lettres de ces deux taxons : "Ha-"+"cr-"). Les Hacrobies formeraient le groupe frère des Harosa au sein des Chromalveolata au sens large. Il a été proposé en 2010 d'y inclure également les Heliozoa.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Liste des embranchements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (16 août 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (16 août 2017) :
 embranchement des Haptophyta Cavalier-Smith
-Selon World Register of Marine Species                               (16 août 2017)[6] :
+Selon World Register of Marine Species                               (16 août 2017) :
 embranchement des Cryptophyta
 embranchement des Haptophyta
 embranchement des Heliozoa
-Cladogramme basé sur le travail effectué par Silar 2016[7],[8].
+Cladogramme basé sur le travail effectué par Silar 2016,.
 </t>
         </is>
       </c>
